--- a/受控文件/访谈/PRD-G08-管理员需求评分表-answer.xlsx
+++ b/受控文件/访谈/PRD-G08-管理员需求评分表-answer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>软件工程系列课程教学辅助网站教师优先级打分表（作者：G08）</t>
   </si>
@@ -388,24 +388,6 @@
   </si>
   <si>
     <t>对网站删除友情链接</t>
-  </si>
-  <si>
-    <t>添加网站首页动图</t>
-  </si>
-  <si>
-    <t>对网站添加首页动图</t>
-  </si>
-  <si>
-    <t>修改网站首页动图</t>
-  </si>
-  <si>
-    <t>对网站修改首页动图</t>
-  </si>
-  <si>
-    <t>删除网站首页动图</t>
-  </si>
-  <si>
-    <t>对网站删除首页动图</t>
   </si>
   <si>
     <t>合计</t>
@@ -418,8 +400,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -461,8 +443,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,75 +555,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -560,22 +572,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -583,25 +579,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -614,31 +596,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,37 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,12 +656,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -716,7 +668,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,37 +710,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,19 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,6 +790,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -819,6 +825,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,21 +858,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -869,15 +869,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,15 +887,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -913,10 +895,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,133 +907,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,10 +1431,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N1"/>
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1580,26 +1562,26 @@
         <v>27</v>
       </c>
       <c r="J5" s="9">
-        <f>I5/I$78</f>
-        <v>0.0278637770897833</v>
+        <f>I5/I$75</f>
+        <v>0.0296052631578947</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" s="9">
-        <f>K5/K$78</f>
-        <v>0.00574712643678161</v>
+        <f>K5/K$75</f>
+        <v>0.00606060606060606</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5" s="9">
-        <f>M5/M$78</f>
-        <v>0.0264550264550265</v>
+        <f>M5/M$75</f>
+        <v>0.0279329608938547</v>
       </c>
       <c r="O5" s="10">
         <f>J5/(L5+0.5*N5)</f>
-        <v>1.46847463681829</v>
+        <v>1.47826111135828</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1624,26 +1606,26 @@
         <v>24</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" ref="J6:J37" si="0">I6/I$78</f>
-        <v>0.0247678018575851</v>
+        <f t="shared" ref="J6:J37" si="0">I6/I$75</f>
+        <v>0.0263157894736842</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" ref="L6:L37" si="1">K6/K$78</f>
-        <v>0.00574712643678161</v>
+        <f t="shared" ref="L6:L37" si="1">K6/K$75</f>
+        <v>0.00606060606060606</v>
       </c>
       <c r="M6">
         <v>3</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" ref="N6:N37" si="2">M6/M$78</f>
-        <v>0.0158730158730159</v>
+        <f t="shared" ref="N6:N37" si="2">M6/M$75</f>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O6" s="10">
         <f>J6/(L6+0.5*N6)</f>
-        <v>1.81003095975232</v>
+        <v>1.8223607083359</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1669,25 +1651,25 @@
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K7" s="12">
         <v>2</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="1"/>
-        <v>0.0114942528735632</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="2"/>
-        <v>0.0264550264550265</v>
+        <v>0.0279329608938547</v>
       </c>
       <c r="O7" s="10">
         <f>J7/(L7+0.5*N7)</f>
-        <v>0.793140872585196</v>
+        <v>0.798588578844906</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1745,25 +1727,25 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="0"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="1"/>
-        <v>0.0114942528735632</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="2"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O10" s="10">
         <f t="shared" ref="O10:O41" si="4">J10/(L10+0.5*N10)</f>
-        <v>1.16815856777494</v>
+        <v>1.17650573613767</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1789,25 +1771,25 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="0"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K11" s="12">
         <v>3</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M11" s="2">
         <v>2</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="2"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O11" s="10">
         <f t="shared" si="4"/>
-        <v>0.412203406826187</v>
+        <v>0.415190620782726</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1873,25 +1855,25 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="0"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M14" s="2">
         <v>2</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="2"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O14" s="10">
         <f t="shared" si="4"/>
-        <v>0.412203406826187</v>
+        <v>0.415190620782726</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1974,25 +1956,25 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="0"/>
-        <v>0.021671826625387</v>
+        <v>0.0230263157894737</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="2"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="4"/>
-        <v>0.778906765467188</v>
+        <v>0.784408577672555</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2018,25 +2000,25 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="0"/>
-        <v>0.0123839009287926</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="K20">
         <v>3</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" si="2"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O20" s="10">
         <f t="shared" si="4"/>
-        <v>0.445089580266964</v>
+        <v>0.448233472955746</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2076,25 +2058,25 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="0"/>
-        <v>0.0154798761609907</v>
+        <v>0.0164473684210526</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="1"/>
-        <v>0.0114942528735632</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="M22" s="2">
         <v>2</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="2"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O22" s="10">
         <f t="shared" si="4"/>
-        <v>0.922230448243371</v>
+        <v>0.928820318003422</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2135,25 +2117,25 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" si="0"/>
-        <v>0.0278637770897833</v>
+        <v>0.0296052631578947</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M24">
         <v>2</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="2"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O24" s="10">
         <f t="shared" si="4"/>
-        <v>1.23661022047856</v>
+        <v>1.24557186234818</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2179,25 +2161,25 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" si="0"/>
-        <v>0.0278637770897833</v>
+        <v>0.0296052631578947</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M25">
         <v>8</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="2"/>
-        <v>0.0423280423280423</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="O25" s="10">
         <f t="shared" si="4"/>
-        <v>0.725517160233264</v>
+        <v>0.73048575385833</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2223,25 +2205,25 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="0"/>
-        <v>0.0278637770897833</v>
+        <v>0.0296052631578947</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="1"/>
-        <v>0.0114942528735632</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="M26">
         <v>2</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="2"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="4"/>
-        <v>1.66001480683807</v>
+        <v>1.67187657240616</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2267,25 +2249,25 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="0"/>
-        <v>0.021671826625387</v>
+        <v>0.0230263157894737</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M27" s="2">
         <v>3</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="2"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="4"/>
-        <v>0.860748418360479</v>
+        <v>0.86689896346986</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2341,25 +2323,25 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>0.0247678018575851</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M30">
         <v>2</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="2"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O30" s="10">
         <f t="shared" si="4"/>
-        <v>1.09920908486983</v>
+        <v>1.10717498875394</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2385,25 +2367,25 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M31">
         <v>3</v>
       </c>
       <c r="N31" s="9">
         <f t="shared" si="2"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O31" s="10">
         <f t="shared" si="4"/>
-        <v>0.778772378516624</v>
+        <v>0.784337157425112</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2429,25 +2411,25 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" si="0"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
       <c r="N32" s="9">
         <f t="shared" si="2"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O32" s="10">
         <f t="shared" si="4"/>
-        <v>0.870207192188616</v>
+        <v>0.876513532763533</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2473,25 +2455,25 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="0"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M33">
         <v>3</v>
       </c>
       <c r="N33" s="9">
         <f t="shared" si="2"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O33" s="10">
         <f t="shared" si="4"/>
-        <v>0.778772378516624</v>
+        <v>0.784337157425112</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2517,25 +2499,25 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="0"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M34">
         <v>2</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="2"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O34" s="10">
         <f t="shared" si="4"/>
-        <v>0.870207192188616</v>
+        <v>0.876513532763533</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2561,25 +2543,25 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" si="0"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M35">
         <v>3</v>
       </c>
       <c r="N35" s="9">
         <f t="shared" si="2"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O35" s="10">
         <f t="shared" si="4"/>
-        <v>0.778772378516624</v>
+        <v>0.784337157425112</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2605,25 +2587,25 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" si="0"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M36">
         <v>2</v>
       </c>
       <c r="N36" s="9">
         <f t="shared" si="2"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O36" s="10">
         <f t="shared" si="4"/>
-        <v>0.870207192188616</v>
+        <v>0.876513532763533</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2649,25 +2631,25 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" si="0"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="1"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M37">
         <v>3</v>
       </c>
       <c r="N37" s="9">
         <f t="shared" si="2"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O37" s="10">
         <f t="shared" si="4"/>
-        <v>0.778772378516624</v>
+        <v>0.784337157425112</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2692,26 +2674,26 @@
         <v>19</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" ref="J38:J69" si="5">I38/I$78</f>
-        <v>0.0196078431372549</v>
+        <f t="shared" ref="J38:J69" si="5">I38/I$75</f>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" ref="L38:L69" si="6">K38/K$78</f>
-        <v>0.0172413793103448</v>
+        <f t="shared" ref="L38:L69" si="6">K38/K$75</f>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M38">
         <v>3</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" ref="N38:N69" si="7">M38/M$78</f>
-        <v>0.0158730158730159</v>
+        <f t="shared" ref="N38:N69" si="7">M38/M$75</f>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O38" s="10">
         <f t="shared" si="4"/>
-        <v>0.778772378516624</v>
+        <v>0.784337157425112</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2737,25 +2719,25 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" si="5"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K39">
         <v>3</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M39">
         <v>2</v>
       </c>
       <c r="N39" s="9">
         <f t="shared" si="7"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O39" s="10">
         <f t="shared" si="4"/>
-        <v>0.870207192188616</v>
+        <v>0.876513532763533</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2781,25 +2763,25 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" si="5"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
       <c r="N40" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O40" s="10">
         <f t="shared" si="4"/>
-        <v>0.704725168756027</v>
+        <v>0.709702998846597</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2825,25 +2807,25 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" si="5"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M41">
         <v>2</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" si="7"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O41" s="10">
         <f t="shared" si="4"/>
-        <v>0.870207192188616</v>
+        <v>0.876513532763533</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2869,25 +2851,25 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" si="5"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M42">
         <v>4</v>
       </c>
       <c r="N42" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O42" s="10">
         <f t="shared" ref="O42:O77" si="9">J42/(L42+0.5*N42)</f>
-        <v>0.704725168756027</v>
+        <v>0.709702998846597</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2913,25 +2895,25 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" si="5"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M43">
         <v>3</v>
       </c>
       <c r="N43" s="9">
         <f t="shared" si="7"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O43" s="10">
         <f t="shared" si="9"/>
-        <v>0.778772378516624</v>
+        <v>0.784337157425112</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2957,25 +2939,25 @@
       </c>
       <c r="J44" s="9">
         <f t="shared" si="5"/>
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M44">
         <v>2</v>
       </c>
       <c r="N44" s="9">
         <f t="shared" si="7"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O44" s="10">
         <f t="shared" si="9"/>
-        <v>0.870207192188616</v>
+        <v>0.876513532763533</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3001,25 +2983,25 @@
       </c>
       <c r="J45" s="9">
         <f t="shared" si="5"/>
-        <v>0.0175438596491228</v>
+        <v>0.018640350877193</v>
       </c>
       <c r="K45">
         <v>4</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="6"/>
-        <v>0.0229885057471264</v>
+        <v>0.0242424242424242</v>
       </c>
       <c r="M45">
         <v>5</v>
       </c>
       <c r="N45" s="9">
         <f t="shared" si="7"/>
-        <v>0.0264550264550265</v>
+        <v>0.0279329608938547</v>
       </c>
       <c r="O45" s="10">
         <f t="shared" si="9"/>
-        <v>0.48442264351054</v>
+        <v>0.487853578341068</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3045,25 +3027,25 @@
       </c>
       <c r="J46" s="9">
         <f t="shared" si="5"/>
-        <v>0.0175438596491228</v>
+        <v>0.018640350877193</v>
       </c>
       <c r="K46">
         <v>4</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="6"/>
-        <v>0.0229885057471264</v>
+        <v>0.0242424242424242</v>
       </c>
       <c r="M46">
         <v>6</v>
       </c>
       <c r="N46" s="9">
         <f t="shared" si="7"/>
-        <v>0.0317460317460317</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="O46" s="10">
         <f t="shared" si="9"/>
-        <v>0.451445515196442</v>
+        <v>0.454618301534182</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3089,25 +3071,25 @@
       </c>
       <c r="J47" s="9">
         <f t="shared" si="5"/>
-        <v>0.0154798761609907</v>
+        <v>0.0164473684210526</v>
       </c>
       <c r="K47">
         <v>4</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="6"/>
-        <v>0.0229885057471264</v>
+        <v>0.0242424242424242</v>
       </c>
       <c r="M47">
         <v>5</v>
       </c>
       <c r="N47" s="9">
         <f t="shared" si="7"/>
-        <v>0.0264550264550265</v>
+        <v>0.0279329608938547</v>
       </c>
       <c r="O47" s="10">
         <f t="shared" si="9"/>
-        <v>0.427431744274006</v>
+        <v>0.430459039712707</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3133,25 +3115,25 @@
       </c>
       <c r="J48" s="9">
         <f t="shared" si="5"/>
-        <v>0.0154798761609907</v>
+        <v>0.0164473684210526</v>
       </c>
       <c r="K48">
         <v>4</v>
       </c>
       <c r="L48" s="9">
         <f t="shared" si="6"/>
-        <v>0.0229885057471264</v>
+        <v>0.0242424242424242</v>
       </c>
       <c r="M48">
         <v>3</v>
       </c>
       <c r="N48" s="9">
         <f t="shared" si="7"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O48" s="10">
         <f t="shared" si="9"/>
-        <v>0.50056165922354</v>
+        <v>0.504175429492257</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3177,25 +3159,25 @@
       </c>
       <c r="J49" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K49">
         <v>4</v>
       </c>
       <c r="L49" s="9">
         <f t="shared" si="6"/>
-        <v>0.0229885057471264</v>
+        <v>0.0242424242424242</v>
       </c>
       <c r="M49">
         <v>2</v>
       </c>
       <c r="N49" s="9">
         <f t="shared" si="7"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O49" s="10">
         <f t="shared" si="9"/>
-        <v>0.328433037051833</v>
+        <v>0.330832935061832</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3221,25 +3203,25 @@
       </c>
       <c r="J50" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K50">
         <v>4</v>
       </c>
       <c r="L50" s="9">
         <f t="shared" si="6"/>
-        <v>0.0229885057471264</v>
+        <v>0.0242424242424242</v>
       </c>
       <c r="M50">
         <v>3</v>
       </c>
       <c r="N50" s="9">
         <f t="shared" si="7"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O50" s="10">
         <f t="shared" si="9"/>
-        <v>0.300336995534124</v>
+        <v>0.302505257695354</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3265,25 +3247,25 @@
       </c>
       <c r="J51" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K51">
         <v>3</v>
       </c>
       <c r="L51" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M51">
         <v>5</v>
       </c>
       <c r="N51" s="9">
         <f t="shared" si="7"/>
-        <v>0.0264550264550265</v>
+        <v>0.0279329608938547</v>
       </c>
       <c r="O51" s="10">
         <f t="shared" si="9"/>
-        <v>0.304833058341521</v>
+        <v>0.306965577450736</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3309,25 +3291,25 @@
       </c>
       <c r="J52" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M52">
         <v>3</v>
       </c>
       <c r="N52" s="9">
         <f t="shared" si="7"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O52" s="10">
         <f t="shared" si="9"/>
-        <v>0.368892179297348</v>
+        <v>0.371528127201369</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3353,25 +3335,25 @@
       </c>
       <c r="J53" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="N53" s="9">
         <f t="shared" si="7"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O53" s="10">
         <f t="shared" si="9"/>
-        <v>0.412203406826187</v>
+        <v>0.415190620782726</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3397,25 +3379,25 @@
       </c>
       <c r="J54" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M54">
         <v>2</v>
       </c>
       <c r="N54" s="9">
         <f t="shared" si="7"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O54" s="10">
         <f t="shared" si="9"/>
-        <v>0.412203406826187</v>
+        <v>0.415190620782726</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3441,25 +3423,25 @@
       </c>
       <c r="J55" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K55">
         <v>4</v>
       </c>
       <c r="L55" s="9">
         <f t="shared" si="6"/>
-        <v>0.0229885057471264</v>
+        <v>0.0242424242424242</v>
       </c>
       <c r="M55">
         <v>2</v>
       </c>
       <c r="N55" s="9">
         <f t="shared" si="7"/>
-        <v>0.0105820105820106</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O55" s="10">
         <f t="shared" si="9"/>
-        <v>0.328433037051833</v>
+        <v>0.330832935061832</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3485,25 +3467,25 @@
       </c>
       <c r="J56" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K56">
         <v>4</v>
       </c>
       <c r="L56" s="9">
         <f t="shared" si="6"/>
-        <v>0.0229885057471264</v>
+        <v>0.0242424242424242</v>
       </c>
       <c r="M56">
         <v>3</v>
       </c>
       <c r="N56" s="9">
         <f t="shared" si="7"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O56" s="10">
         <f t="shared" si="9"/>
-        <v>0.300336995534124</v>
+        <v>0.302505257695354</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3529,25 +3511,25 @@
       </c>
       <c r="J57" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K57">
         <v>4</v>
       </c>
       <c r="L57" s="9">
         <f t="shared" si="6"/>
-        <v>0.0229885057471264</v>
+        <v>0.0242424242424242</v>
       </c>
       <c r="M57">
         <v>3</v>
       </c>
       <c r="N57" s="9">
         <f t="shared" si="7"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O57" s="10">
         <f t="shared" si="9"/>
-        <v>0.300336995534124</v>
+        <v>0.302505257695354</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3573,25 +3555,25 @@
       </c>
       <c r="J58" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K58">
         <v>4</v>
       </c>
       <c r="L58" s="9">
         <f t="shared" si="6"/>
-        <v>0.0229885057471264</v>
+        <v>0.0242424242424242</v>
       </c>
       <c r="M58">
         <v>3</v>
       </c>
       <c r="N58" s="9">
         <f t="shared" si="7"/>
-        <v>0.0158730158730159</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O58" s="10">
         <f t="shared" si="9"/>
-        <v>0.300336995534124</v>
+        <v>0.302505257695354</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3617,25 +3599,25 @@
       </c>
       <c r="J59" s="9">
         <f t="shared" si="5"/>
-        <v>0.0175438596491228</v>
+        <v>0.018640350877193</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M59">
         <v>4</v>
       </c>
       <c r="N59" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O59" s="10">
         <f t="shared" si="9"/>
-        <v>0.630543572044866</v>
+        <v>0.63499742002064</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3661,25 +3643,25 @@
       </c>
       <c r="J60" s="9">
         <f t="shared" si="5"/>
-        <v>0.0175438596491228</v>
+        <v>0.018640350877193</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M60">
         <v>4</v>
       </c>
       <c r="N60" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O60" s="10">
         <f t="shared" si="9"/>
-        <v>0.630543572044866</v>
+        <v>0.63499742002064</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3705,25 +3687,25 @@
       </c>
       <c r="J61" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K61">
         <v>3</v>
       </c>
       <c r="L61" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M61">
         <v>4</v>
       </c>
       <c r="N61" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O61" s="10">
         <f t="shared" si="9"/>
-        <v>0.333817185200223</v>
+        <v>0.336175104716809</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3749,25 +3731,25 @@
       </c>
       <c r="J62" s="9">
         <f t="shared" si="5"/>
-        <v>0.00928792569659443</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="K62">
         <v>3</v>
       </c>
       <c r="L62" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M62">
         <v>4</v>
       </c>
       <c r="N62" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O62" s="10">
         <f t="shared" si="9"/>
-        <v>0.333817185200223</v>
+        <v>0.336175104716809</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3793,25 +3775,25 @@
       </c>
       <c r="J63" s="9">
         <f t="shared" si="5"/>
-        <v>0.0175438596491228</v>
+        <v>0.018640350877193</v>
       </c>
       <c r="K63">
         <v>3</v>
       </c>
       <c r="L63" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M63">
         <v>4</v>
       </c>
       <c r="N63" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O63" s="10">
         <f t="shared" si="9"/>
-        <v>0.630543572044866</v>
+        <v>0.63499742002064</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3837,25 +3819,25 @@
       </c>
       <c r="J64" s="9">
         <f t="shared" si="5"/>
-        <v>0.0175438596491228</v>
+        <v>0.018640350877193</v>
       </c>
       <c r="K64">
         <v>3</v>
       </c>
       <c r="L64" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M64">
         <v>4</v>
       </c>
       <c r="N64" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O64" s="10">
         <f t="shared" si="9"/>
-        <v>0.630543572044866</v>
+        <v>0.63499742002064</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3881,25 +3863,25 @@
       </c>
       <c r="J65" s="9">
         <f t="shared" si="5"/>
-        <v>0.0175438596491228</v>
+        <v>0.018640350877193</v>
       </c>
       <c r="K65">
         <v>3</v>
       </c>
       <c r="L65" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M65">
         <v>4</v>
       </c>
       <c r="N65" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O65" s="10">
         <f t="shared" si="9"/>
-        <v>0.630543572044866</v>
+        <v>0.63499742002064</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3925,25 +3907,25 @@
       </c>
       <c r="J66" s="9">
         <f t="shared" si="5"/>
-        <v>0.0175438596491228</v>
+        <v>0.018640350877193</v>
       </c>
       <c r="K66">
         <v>3</v>
       </c>
       <c r="L66" s="9">
         <f t="shared" si="6"/>
-        <v>0.0172413793103448</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M66">
         <v>4</v>
       </c>
       <c r="N66" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O66" s="10">
         <f t="shared" si="9"/>
-        <v>0.630543572044866</v>
+        <v>0.63499742002064</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3983,25 +3965,25 @@
       </c>
       <c r="J68" s="9">
         <f t="shared" si="5"/>
-        <v>0.0175438596491228</v>
+        <v>0.018640350877193</v>
       </c>
       <c r="K68">
         <v>2</v>
       </c>
       <c r="L68" s="9">
         <f t="shared" si="6"/>
-        <v>0.0114942528735632</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="M68" s="2">
         <v>4</v>
       </c>
       <c r="N68" s="9">
         <f t="shared" si="7"/>
-        <v>0.0211640211640212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O68" s="10">
         <f t="shared" si="9"/>
-        <v>0.794693344932579</v>
+        <v>0.800207504589963</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4041,26 +4023,26 @@
         <v>17</v>
       </c>
       <c r="J70" s="9">
-        <f>I70/I$78</f>
-        <v>0.0175438596491228</v>
+        <f>I70/I$75</f>
+        <v>0.018640350877193</v>
       </c>
       <c r="K70">
         <v>2</v>
       </c>
       <c r="L70" s="9">
-        <f>K70/K$78</f>
-        <v>0.0114942528735632</v>
+        <f>K70/K$75</f>
+        <v>0.0121212121212121</v>
       </c>
       <c r="M70">
         <v>4</v>
       </c>
       <c r="N70" s="9">
-        <f>M70/M$78</f>
-        <v>0.0211640211640212</v>
+        <f>M70/M$75</f>
+        <v>0.0223463687150838</v>
       </c>
       <c r="O70" s="10">
         <f t="shared" si="9"/>
-        <v>0.794693344932579</v>
+        <v>0.800207504589963</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4095,30 +4077,30 @@
         <v>5</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="I72:I78" si="10">2*G72+H72</f>
+        <f>2*G72+H72</f>
         <v>19</v>
       </c>
       <c r="J72" s="9">
-        <f t="shared" ref="J72:J78" si="11">I72/I$78</f>
-        <v>0.0196078431372549</v>
+        <f>I72/I$75</f>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K72" s="13">
         <v>3</v>
       </c>
       <c r="L72" s="9">
-        <f t="shared" ref="L72:L78" si="12">K72/K$78</f>
-        <v>0.0172413793103448</v>
+        <f>K72/K$75</f>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M72">
         <v>3</v>
       </c>
       <c r="N72" s="9">
-        <f t="shared" ref="N72:N78" si="13">M72/M$78</f>
-        <v>0.0158730158730159</v>
+        <f>M72/M$75</f>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O72" s="10">
         <f t="shared" si="9"/>
-        <v>0.778772378516624</v>
+        <v>0.784337157425112</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4139,30 +4121,30 @@
         <v>5</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
+        <f>2*G73+H73</f>
         <v>19</v>
       </c>
       <c r="J73" s="9">
-        <f t="shared" si="11"/>
-        <v>0.0196078431372549</v>
+        <f>I73/I$75</f>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K73" s="14">
         <v>3</v>
       </c>
       <c r="L73" s="9">
-        <f t="shared" si="12"/>
-        <v>0.0172413793103448</v>
+        <f>K73/K$75</f>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M73">
         <v>3</v>
       </c>
       <c r="N73" s="9">
-        <f t="shared" si="13"/>
-        <v>0.0158730158730159</v>
+        <f>M73/M$75</f>
+        <v>0.0167597765363128</v>
       </c>
       <c r="O73" s="10">
         <f t="shared" si="9"/>
-        <v>0.778772378516624</v>
+        <v>0.784337157425112</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4183,204 +4165,72 @@
         <v>5</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
+        <f>2*G74+H74</f>
         <v>19</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="11"/>
-        <v>0.0196078431372549</v>
+        <f>I74/I$75</f>
+        <v>0.0208333333333333</v>
       </c>
       <c r="K74" s="13">
         <v>3</v>
       </c>
       <c r="L74" s="9">
-        <f t="shared" si="12"/>
-        <v>0.0172413793103448</v>
+        <f>K74/K$75</f>
+        <v>0.0181818181818182</v>
       </c>
       <c r="M74">
         <v>2</v>
       </c>
       <c r="N74" s="9">
-        <f t="shared" si="13"/>
-        <v>0.0105820105820106</v>
+        <f>M74/M$75</f>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O74" s="10">
         <f t="shared" si="9"/>
-        <v>0.870207192188616</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>0.876513532763533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
       <c r="G75">
-        <v>7</v>
+        <f>SUM(G5:G74)</f>
+        <v>340</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <f>SUM(H5:H74)</f>
+        <v>232</v>
       </c>
       <c r="I75">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f>2*G75+H75</f>
+        <v>912</v>
       </c>
       <c r="J75" s="9">
-        <f t="shared" si="11"/>
-        <v>0.0196078431372549</v>
-      </c>
-      <c r="K75" s="13">
-        <v>3</v>
+        <f>I75/I$75</f>
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <f>SUM(K5:K74)</f>
+        <v>165</v>
       </c>
       <c r="L75" s="9">
-        <f t="shared" si="12"/>
-        <v>0.0172413793103448</v>
+        <f>K75/K$75</f>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>5</v>
+        <f>SUM(M5:M74)</f>
+        <v>179</v>
       </c>
       <c r="N75" s="9">
-        <f t="shared" si="13"/>
-        <v>0.0264550264550265</v>
-      </c>
-      <c r="O75" s="10">
-        <f t="shared" si="9"/>
-        <v>0.643536456498767</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76">
-        <v>7</v>
-      </c>
-      <c r="H76">
-        <v>5</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="J76" s="9">
-        <f t="shared" si="11"/>
-        <v>0.0196078431372549</v>
-      </c>
-      <c r="K76" s="13">
-        <v>3</v>
-      </c>
-      <c r="L76" s="9">
-        <f t="shared" si="12"/>
-        <v>0.0172413793103448</v>
-      </c>
-      <c r="M76">
-        <v>3</v>
-      </c>
-      <c r="N76" s="9">
-        <f t="shared" si="13"/>
-        <v>0.0158730158730159</v>
-      </c>
-      <c r="O76" s="10">
-        <f t="shared" si="9"/>
-        <v>0.778772378516624</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77">
-        <v>7</v>
-      </c>
-      <c r="H77">
-        <v>5</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="J77" s="9">
-        <f t="shared" si="11"/>
-        <v>0.0196078431372549</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="L77" s="9">
-        <f t="shared" si="12"/>
-        <v>0.0172413793103448</v>
-      </c>
-      <c r="M77">
-        <v>2</v>
-      </c>
-      <c r="N77" s="9">
-        <f t="shared" si="13"/>
-        <v>0.0105820105820106</v>
-      </c>
-      <c r="O77" s="10">
-        <f t="shared" si="9"/>
-        <v>0.870207192188616</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="G78">
-        <f>SUM(G5:G77)</f>
-        <v>361</v>
-      </c>
-      <c r="H78">
-        <f>SUM(H5:H77)</f>
-        <v>247</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="10"/>
-        <v>969</v>
-      </c>
-      <c r="J78" s="9">
-        <f t="shared" si="11"/>
+        <f>M75/M$75</f>
         <v>1</v>
       </c>
-      <c r="K78">
-        <f>SUM(K5:K77)</f>
-        <v>174</v>
-      </c>
-      <c r="L78" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <f>SUM(M5:M77)</f>
-        <v>189</v>
-      </c>
-      <c r="N78" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="196">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="E3:F3"/>
@@ -4479,12 +4329,6 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="A78:B78"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="G14:G18"/>
